--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P05_trail1 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P05_trail1 Features.xlsx
@@ -4106,7 +4106,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.428251410766735</v>
+        <v>1.463134478001084</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.567457926885468</v>
@@ -4195,7 +4195,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.472969790506551</v>
+        <v>1.509674917333685</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.402752988775445</v>
@@ -4284,7 +4284,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.486511032551579</v>
+        <v>1.522177566707587</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.421607923307987</v>
@@ -4373,7 +4373,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.518285050368579</v>
+        <v>1.556187941746246</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.323374747241451</v>
@@ -4462,7 +4462,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.531043194558549</v>
+        <v>1.575253575874647</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.358621672147029</v>
@@ -4551,7 +4551,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.505319691162558</v>
+        <v>1.550160828542664</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.505477592920393</v>
@@ -4640,7 +4640,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.52232557732364</v>
+        <v>1.563476337320697</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.511793253517283</v>
@@ -4729,7 +4729,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.526767377599851</v>
+        <v>1.567810771334917</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.421087292565963</v>
@@ -4818,7 +4818,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.531443114225296</v>
+        <v>1.567803651243801</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.60564681462484</v>
@@ -4907,7 +4907,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.527920859577285</v>
+        <v>1.570293683216222</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.677071242858041</v>
@@ -4996,7 +4996,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.529246879273209</v>
+        <v>1.572666642567958</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.711416075067033</v>
@@ -5085,7 +5085,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.533266936473147</v>
+        <v>1.576288176268255</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.839326093467853</v>
@@ -5174,7 +5174,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.488712067320242</v>
+        <v>1.525417775027558</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.518202609454383</v>
@@ -5263,7 +5263,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.463854888676965</v>
+        <v>1.500864662078242</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.447038327329577</v>
@@ -5352,7 +5352,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.513979344051614</v>
+        <v>1.546031915837151</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.74163331983927</v>
@@ -5441,7 +5441,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.492939826620838</v>
+        <v>1.529049378740641</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.510949896991517</v>
@@ -5530,7 +5530,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.474792964417372</v>
+        <v>1.504367168872404</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.583572189896555</v>
@@ -5619,7 +5619,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.450594087464669</v>
+        <v>1.480132374543214</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.595488200294299</v>
@@ -5708,7 +5708,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.444427089640929</v>
+        <v>1.471726000464569</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.511045766516397</v>
@@ -5797,7 +5797,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.430155808149337</v>
+        <v>1.457607453369606</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.498284004927338</v>
@@ -5886,7 +5886,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.381230740629371</v>
+        <v>1.399456127659597</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.849367734863069</v>
@@ -5975,7 +5975,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.331425137221114</v>
+        <v>1.353418223493796</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.893999124714889</v>
@@ -6064,7 +6064,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.321933411227047</v>
+        <v>1.346800770838139</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.889833851024525</v>
@@ -6153,7 +6153,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.308114549190678</v>
+        <v>1.331580904824005</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.84638562929588</v>
@@ -6242,7 +6242,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.308130627008367</v>
+        <v>1.331714189574236</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.893432865984288</v>
@@ -6331,7 +6331,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.303940333238022</v>
+        <v>1.32508528730399</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.895972331584758</v>
@@ -6420,7 +6420,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.29393863280879</v>
+        <v>1.315958116810753</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.902420676534031</v>
@@ -6509,7 +6509,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.302984717594865</v>
+        <v>1.327475653558115</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.884317249052661</v>
@@ -6598,7 +6598,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.304472420193787</v>
+        <v>1.326871552264236</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.882502981731788</v>
@@ -6687,7 +6687,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.29900856187928</v>
+        <v>1.324908418825882</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.811794390841178</v>
@@ -6776,7 +6776,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.303528351908242</v>
+        <v>1.331395963459987</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.856589278374681</v>
@@ -6865,7 +6865,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.297649091777027</v>
+        <v>1.323904796835339</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.870153984791379</v>
@@ -6954,7 +6954,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.296041731100597</v>
+        <v>1.322663799382546</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.844115714195264</v>
@@ -7043,7 +7043,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.290584737763334</v>
+        <v>1.317310612968407</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.824919123694091</v>
@@ -7132,7 +7132,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.287527371905372</v>
+        <v>1.313892593251748</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.789974322480708</v>
@@ -7221,7 +7221,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.341867559591629</v>
+        <v>1.373351227960142</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.868188089526544</v>
@@ -7310,7 +7310,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.377165829714207</v>
+        <v>1.407931285452151</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.34978437712439</v>
@@ -7399,7 +7399,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.382856169923547</v>
+        <v>1.409194352984828</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.223908519425751</v>
@@ -7488,7 +7488,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.400679120468688</v>
+        <v>1.434622628438524</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.449963824727313</v>
@@ -7577,7 +7577,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.401892643682229</v>
+        <v>1.434702149012115</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.442580244701153</v>
@@ -7666,7 +7666,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.401336351460258</v>
+        <v>1.435486663643135</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.440051635993815</v>
@@ -7755,7 +7755,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.431481336447623</v>
+        <v>1.463594801068387</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.456078068390268</v>
@@ -8041,7 +8041,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.412243010881963</v>
+        <v>1.402267722359037</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.259255243116475</v>
@@ -8130,7 +8130,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.413121821693809</v>
+        <v>1.407236832098296</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.167561698386873</v>
@@ -8219,7 +8219,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.433803786253212</v>
+        <v>1.43190279843816</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.03487376750121</v>
@@ -8308,7 +8308,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.471685407789075</v>
+        <v>1.465102574979114</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.029143859511712</v>
@@ -8397,7 +8397,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.511138496634878</v>
+        <v>1.504536264501531</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.142732981681209</v>
@@ -8486,7 +8486,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.496713804745368</v>
+        <v>1.487813739973237</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.181305030644612</v>
@@ -8575,7 +8575,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.48313467656057</v>
+        <v>1.477464003538156</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.147558642088633</v>
@@ -8664,7 +8664,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.48252813167508</v>
+        <v>1.479484250693517</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.194391307484425</v>
@@ -8753,7 +8753,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.484666308434447</v>
+        <v>1.478359646402409</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.168078782500664</v>
@@ -8842,7 +8842,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.516382238254366</v>
+        <v>1.509240737702669</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.685171617781181</v>
@@ -8931,7 +8931,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.518203381065536</v>
+        <v>1.510896863985463</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.637177967644056</v>
@@ -9020,7 +9020,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.517969313408487</v>
+        <v>1.509939380895121</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.708306531144531</v>
@@ -9109,7 +9109,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.519922336096886</v>
+        <v>1.505505237084381</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.724207581476348</v>
@@ -9198,7 +9198,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.505987117559135</v>
+        <v>1.492028385310994</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.615206142572874</v>
@@ -9287,7 +9287,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.519551496956582</v>
+        <v>1.509509083327377</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.706748214772109</v>
@@ -9376,7 +9376,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.513178284457581</v>
+        <v>1.498116484667479</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.510228878230695</v>
@@ -9465,7 +9465,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.504172196372769</v>
+        <v>1.484299269491733</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.482433871802422</v>
@@ -9554,7 +9554,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.46994771278049</v>
+        <v>1.448425036353142</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.400534106561513</v>
@@ -9643,7 +9643,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.42442471471161</v>
+        <v>1.410557915914756</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.20971745747556</v>
@@ -9732,7 +9732,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.399375121342531</v>
+        <v>1.385572618800722</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.226603890632432</v>
@@ -9821,7 +9821,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.389241590339549</v>
+        <v>1.381978400438841</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.268865017865064</v>
@@ -9910,7 +9910,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.379566027688089</v>
+        <v>1.375568372583364</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.231082610662173</v>
@@ -9999,7 +9999,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.398928913776552</v>
+        <v>1.395465846545138</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.311174801590166</v>
@@ -10088,7 +10088,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.430880293667244</v>
+        <v>1.428294676984283</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.39023335045063</v>
@@ -10177,7 +10177,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.424720351613882</v>
+        <v>1.422807681021053</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.393330556687453</v>
@@ -10266,7 +10266,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.419059472196039</v>
+        <v>1.419510495811473</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.41094190614665</v>
@@ -10355,7 +10355,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.41119077699785</v>
+        <v>1.41160849387588</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.415376276296441</v>
@@ -10444,7 +10444,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.405251668106904</v>
+        <v>1.401028548230036</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.371240029546777</v>
@@ -10533,7 +10533,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.39065058087819</v>
+        <v>1.38596142084527</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.302220058613816</v>
@@ -10622,7 +10622,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.379966420230296</v>
+        <v>1.378190256286935</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.412220025402109</v>
@@ -10711,7 +10711,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.383209742746675</v>
+        <v>1.384299966111324</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.446483415611464</v>
@@ -10800,7 +10800,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.389877965173514</v>
+        <v>1.392870832046886</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.427421292538593</v>
@@ -10889,7 +10889,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.407884793126405</v>
+        <v>1.412987446128923</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.287900969483175</v>
@@ -10978,7 +10978,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.429203552566471</v>
+        <v>1.433382954303277</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.49472117594311</v>
@@ -11067,7 +11067,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.459999198271431</v>
+        <v>1.464144894790232</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.242340509214076</v>
@@ -11156,7 +11156,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.471512350131132</v>
+        <v>1.470276432221544</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.430565368008273</v>
@@ -11245,7 +11245,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.471393528391328</v>
+        <v>1.465663368653663</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.548354313199814</v>
@@ -11334,7 +11334,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.431296214062943</v>
+        <v>1.429207837358208</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.437370370491256</v>
@@ -11423,7 +11423,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.400250571898097</v>
+        <v>1.394081775232773</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.243020601314681</v>
@@ -11512,7 +11512,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.407533214853016</v>
+        <v>1.403796474362914</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.405396489407747</v>
@@ -11601,7 +11601,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.408383020647401</v>
+        <v>1.402552159210124</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.349235119260738</v>
@@ -11690,7 +11690,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.42224108161528</v>
+        <v>1.416267454706788</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.452504152537026</v>
@@ -11976,7 +11976,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.709223629242268</v>
+        <v>1.692755880397574</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.91122425645412</v>
@@ -12065,7 +12065,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.720324409174659</v>
+        <v>1.708271239078199</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.877606028708101</v>
@@ -12154,7 +12154,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.751246191233443</v>
+        <v>1.734774307637079</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.583909874806273</v>
@@ -12243,7 +12243,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.79771355625471</v>
+        <v>1.778722577798788</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.619464781693654</v>
@@ -12332,7 +12332,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.821424503121738</v>
+        <v>1.804520376220521</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.907552242731742</v>
@@ -12421,7 +12421,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.818291605298576</v>
+        <v>1.806022339656449</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.029681060988003</v>
@@ -12510,7 +12510,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.814041116719001</v>
+        <v>1.807810144612219</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.120095187426881</v>
@@ -12599,7 +12599,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.81630826745491</v>
+        <v>1.812044044028771</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.807856764627888</v>
@@ -12688,7 +12688,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.827239107308953</v>
+        <v>1.820419332184313</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.939447252413077</v>
@@ -12777,7 +12777,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.85786305241203</v>
+        <v>1.839777911457833</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.241587980499661</v>
@@ -12866,7 +12866,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.855292466525558</v>
+        <v>1.836557112838582</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.526713564947833</v>
@@ -12955,7 +12955,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.855809794123454</v>
+        <v>1.837973178697583</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.007785292501317</v>
@@ -13044,7 +13044,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.833927641612251</v>
+        <v>1.815067618708807</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.215598493286965</v>
@@ -13133,7 +13133,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.819845600566878</v>
+        <v>1.801446628493618</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.999555397712264</v>
@@ -13222,7 +13222,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.850807877061412</v>
+        <v>1.829805913209075</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.390955962244226</v>
@@ -13311,7 +13311,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.842287647760948</v>
+        <v>1.824528199157586</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.952754058045499</v>
@@ -13400,7 +13400,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.825888790835568</v>
+        <v>1.801669638187616</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.223488715600233</v>
@@ -13489,7 +13489,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.801086925839435</v>
+        <v>1.777388639880059</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.495851781997198</v>
@@ -13578,7 +13578,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.7853892538866</v>
+        <v>1.765433116138683</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.533646332879779</v>
@@ -13667,7 +13667,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.745832138206806</v>
+        <v>1.731096069145395</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.242628208730459</v>
@@ -13756,7 +13756,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.720812399313507</v>
+        <v>1.70792409887382</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.682062350790021</v>
@@ -13845,7 +13845,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.708616854560687</v>
+        <v>1.706729972639665</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.846136526586695</v>
@@ -13934,7 +13934,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.700979010259564</v>
+        <v>1.699185259413191</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.652310376720716</v>
@@ -14023,7 +14023,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.700485627244877</v>
+        <v>1.702407073813331</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.783189870725219</v>
@@ -14112,7 +14112,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.687481766055905</v>
+        <v>1.692811349908286</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.687085067970063</v>
@@ -14201,7 +14201,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.682536637538526</v>
+        <v>1.688367303489106</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.622830830729063</v>
@@ -14290,7 +14290,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.668093534804139</v>
+        <v>1.669884676332199</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.563321186998782</v>
@@ -14379,7 +14379,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.674143650374391</v>
+        <v>1.672685556161977</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.699027805293551</v>
@@ -14468,7 +14468,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.677421237287167</v>
+        <v>1.675621286694223</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.669456541406119</v>
@@ -14557,7 +14557,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.666190927040453</v>
+        <v>1.66221112753696</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.617216186062775</v>
@@ -14646,7 +14646,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.659896790171729</v>
+        <v>1.659739912258599</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.647018831990045</v>
@@ -14735,7 +14735,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.663315930402722</v>
+        <v>1.665524951456043</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.481155472724449</v>
@@ -14824,7 +14824,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.659000161380858</v>
+        <v>1.663865718981883</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.401744144018682</v>
@@ -14913,7 +14913,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.654271772352088</v>
+        <v>1.656432916640381</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.555356069603453</v>
@@ -15002,7 +15002,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.675672546302891</v>
+        <v>1.67383618589583</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.671612965848232</v>
@@ -15091,7 +15091,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.690403240937239</v>
+        <v>1.682094472431265</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.301642931036704</v>
@@ -15180,7 +15180,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.678765881976874</v>
+        <v>1.665420224309128</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.78475310265369</v>
@@ -15269,7 +15269,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.667761250511575</v>
+        <v>1.651530987499939</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.765143682274012</v>
@@ -15358,7 +15358,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.639722541630997</v>
+        <v>1.619118013532445</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.99980054722641</v>
@@ -15447,7 +15447,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.637908657147492</v>
+        <v>1.615442727484549</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.949025298511328</v>
@@ -15536,7 +15536,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.633194286120351</v>
+        <v>1.60486033856143</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.837178947310937</v>
@@ -15625,7 +15625,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.644092359627189</v>
+        <v>1.617147703417327</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.861379487925424</v>
@@ -15911,7 +15911,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.551397074294782</v>
+        <v>1.566296853803488</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.80334947294842</v>
@@ -16000,7 +16000,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.56413181628016</v>
+        <v>1.577837906133825</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.685997097666866</v>
@@ -16089,7 +16089,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.577143295714601</v>
+        <v>1.594109040600957</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.958190790438513</v>
@@ -16178,7 +16178,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.579924157447472</v>
+        <v>1.596849724918226</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.97791512153442</v>
@@ -16267,7 +16267,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.608199502084915</v>
+        <v>1.624581206504564</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.725632637755927</v>
@@ -16356,7 +16356,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.599381163452334</v>
+        <v>1.61597334420779</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.189638767578515</v>
@@ -16445,7 +16445,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.609250767460678</v>
+        <v>1.622292326876491</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.192018950999895</v>
@@ -16534,7 +16534,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.60270994151877</v>
+        <v>1.617974642730827</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.077952432737081</v>
@@ -16623,7 +16623,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.597969579857598</v>
+        <v>1.614032619315571</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.053154170289569</v>
@@ -16712,7 +16712,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.584359434327677</v>
+        <v>1.60829905979612</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.217766949312868</v>
@@ -16801,7 +16801,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.579333223263676</v>
+        <v>1.602790036317832</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.17020259031998</v>
@@ -16890,7 +16890,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.588957235347795</v>
+        <v>1.61455301624758</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.869169377720193</v>
@@ -16979,7 +16979,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.567842426484649</v>
+        <v>1.594032128075473</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.099483226741133</v>
@@ -17068,7 +17068,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.534948958550818</v>
+        <v>1.566860762594213</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.848168518634533</v>
@@ -17157,7 +17157,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.562545108825351</v>
+        <v>1.580692770972078</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.004442231540233</v>
@@ -17246,7 +17246,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.549122838136759</v>
+        <v>1.570464098918178</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.106293151025432</v>
@@ -17335,7 +17335,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.540343348450015</v>
+        <v>1.564915827870529</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.912327472755187</v>
@@ -17424,7 +17424,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.515885236719235</v>
+        <v>1.53863328283897</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.980107909731999</v>
@@ -17513,7 +17513,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.534780204491821</v>
+        <v>1.550313757993665</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.936446277183318</v>
@@ -17602,7 +17602,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.532168313224796</v>
+        <v>1.543171965651684</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.821536491871893</v>
@@ -17691,7 +17691,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.491114053290398</v>
+        <v>1.49186960126943</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.929172058241586</v>
@@ -17780,7 +17780,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.473252567932192</v>
+        <v>1.479725820899627</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.948743408943928</v>
@@ -17869,7 +17869,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.470997905709017</v>
+        <v>1.476215332273692</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.940219788077561</v>
@@ -17958,7 +17958,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.461678131872134</v>
+        <v>1.466435085493851</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.957281946680102</v>
@@ -18047,7 +18047,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.454977789344579</v>
+        <v>1.455832252123266</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.935419881437974</v>
@@ -18136,7 +18136,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.447402363166863</v>
+        <v>1.447982109377738</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.930383194418785</v>
@@ -18225,7 +18225,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.431771845547495</v>
+        <v>1.430549715161848</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.899468902007771</v>
@@ -18314,7 +18314,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.431133894007867</v>
+        <v>1.426325661196508</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.892420057251994</v>
@@ -18403,7 +18403,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.43203130408548</v>
+        <v>1.427108704445182</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.880632782025139</v>
@@ -18492,7 +18492,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.425070610901081</v>
+        <v>1.423970814997532</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.931529576707733</v>
@@ -18581,7 +18581,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.433794749839667</v>
+        <v>1.430316284317559</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.911945315588738</v>
@@ -18670,7 +18670,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.4339751768452</v>
+        <v>1.42562038240793</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.843033928115513</v>
@@ -18759,7 +18759,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.436135840543465</v>
+        <v>1.430459315911745</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.829047483930376</v>
@@ -18848,7 +18848,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.422438972374136</v>
+        <v>1.421466989467964</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.83754418850751</v>
@@ -18937,7 +18937,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.411341986088341</v>
+        <v>1.414698478224792</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.862709351876666</v>
@@ -19026,7 +19026,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.45908893703389</v>
+        <v>1.465947799395217</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.056259971130831</v>
@@ -19115,7 +19115,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.464902173116173</v>
+        <v>1.4751310784436</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.50294646566055</v>
@@ -19204,7 +19204,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.467743755701028</v>
+        <v>1.475404803173489</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.493095925750033</v>
@@ -19293,7 +19293,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.481852890927523</v>
+        <v>1.489816585003684</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.540724079861052</v>
@@ -19382,7 +19382,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.486235005706674</v>
+        <v>1.493121400880623</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.508227102573657</v>
@@ -19471,7 +19471,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.486278055300468</v>
+        <v>1.494443455267589</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.50007676436101</v>
@@ -19560,7 +19560,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.519567383591565</v>
+        <v>1.524633177244647</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.635870045324636</v>
@@ -19846,7 +19846,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.149987102313312</v>
+        <v>1.137841929212352</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.057816324022704</v>
@@ -19935,7 +19935,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.165526819494965</v>
+        <v>1.155166280356051</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.902416321344984</v>
@@ -20024,7 +20024,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.171905105093149</v>
+        <v>1.163269199225772</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.063348096596733</v>
@@ -20113,7 +20113,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.181585815239809</v>
+        <v>1.173817147942259</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.099973057095109</v>
@@ -20202,7 +20202,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.185181380197236</v>
+        <v>1.182710729677161</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.995710553194322</v>
@@ -20291,7 +20291,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.170232777039601</v>
+        <v>1.163033844932806</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.145987080273541</v>
@@ -20380,7 +20380,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.167406942029275</v>
+        <v>1.162141443380773</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.109868008575134</v>
@@ -20469,7 +20469,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.16801012082052</v>
+        <v>1.162579653620381</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.050181147041771</v>
@@ -20558,7 +20558,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.174197534148974</v>
+        <v>1.166869622800335</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.100733188361611</v>
@@ -20647,7 +20647,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.150949034403835</v>
+        <v>1.149141737882599</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.054617678772057</v>
@@ -20736,7 +20736,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.144565936718569</v>
+        <v>1.141713240751506</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.185805337858069</v>
@@ -20825,7 +20825,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.145958579967469</v>
+        <v>1.143401217595126</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.159984779046365</v>
@@ -20914,7 +20914,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.143456335716001</v>
+        <v>1.135221526223756</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.126074423474977</v>
@@ -21003,7 +21003,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.143239453522392</v>
+        <v>1.13146832145877</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.139036739185133</v>
@@ -21092,7 +21092,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.170003041483649</v>
+        <v>1.152733722319818</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.159184863350664</v>
@@ -21181,7 +21181,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.168654787597168</v>
+        <v>1.156423631703014</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.079270005120742</v>
@@ -21270,7 +21270,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.167281638809023</v>
+        <v>1.149299443104028</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.136427027186793</v>
@@ -21359,7 +21359,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.15920403208764</v>
+        <v>1.142057490150323</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.169119774763538</v>
@@ -21448,7 +21448,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.158918002543258</v>
+        <v>1.1409416519974</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.14992400974651</v>
@@ -21537,7 +21537,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.169731117986247</v>
+        <v>1.148624590623279</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.174172226765685</v>
@@ -21626,7 +21626,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.167554417981113</v>
+        <v>1.146311899454111</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.160765477015487</v>
@@ -21715,7 +21715,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.169720583311849</v>
+        <v>1.149237190740763</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.107552400146809</v>
@@ -21804,7 +21804,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.169087738867477</v>
+        <v>1.147863726478594</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.175262412367696</v>
@@ -21893,7 +21893,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.169401376022263</v>
+        <v>1.147343886279975</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.025827276194754</v>
@@ -21982,7 +21982,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.178194403653539</v>
+        <v>1.156656381687665</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.207324426067551</v>
@@ -22071,7 +22071,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.182596063732577</v>
+        <v>1.159759974763795</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.217167654007759</v>
@@ -22160,7 +22160,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.1824194963459</v>
+        <v>1.158949783349038</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.201054851119671</v>
@@ -22249,7 +22249,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.179907911556927</v>
+        <v>1.157270263071194</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.189293254245944</v>
@@ -22338,7 +22338,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.175901343259673</v>
+        <v>1.160428017889774</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.15198826847405</v>
@@ -22427,7 +22427,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.176426208203853</v>
+        <v>1.162697668951852</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.010870131914516</v>
@@ -22516,7 +22516,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.177651365008621</v>
+        <v>1.164340949324999</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.090781265282154</v>
@@ -22605,7 +22605,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.177368880501067</v>
+        <v>1.164041789642293</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.132106260391545</v>
@@ -22694,7 +22694,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.181238057487413</v>
+        <v>1.168966588306311</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.105138764970415</v>
@@ -22783,7 +22783,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.176869066046571</v>
+        <v>1.165547867172447</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.098552945144832</v>
@@ -22872,7 +22872,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.187637140865505</v>
+        <v>1.179896642816075</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.896478694089099</v>
@@ -22961,7 +22961,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.193465744089274</v>
+        <v>1.185200121228888</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.067892015353331</v>
@@ -23050,7 +23050,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.195594694595649</v>
+        <v>1.18426996310687</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.959928156999687</v>
@@ -23139,7 +23139,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.197309304420248</v>
+        <v>1.18492480454204</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.063932774470547</v>
@@ -23228,7 +23228,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.204021501730205</v>
+        <v>1.195371887882425</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.942255743098154</v>
@@ -23317,7 +23317,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.196121884869469</v>
+        <v>1.188637911508931</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.926512032864533</v>
@@ -23406,7 +23406,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.193821497392058</v>
+        <v>1.183130582623879</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.973406974174108</v>
@@ -23495,7 +23495,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.205577488155726</v>
+        <v>1.194971176804928</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.908350620790521</v>
@@ -23781,7 +23781,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.407339061732337</v>
+        <v>1.444141128003905</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.691413368086274</v>
@@ -23870,7 +23870,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.450482671915903</v>
+        <v>1.493299476824501</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.263397167014291</v>
@@ -23959,7 +23959,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.466498333955643</v>
+        <v>1.507839081516731</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.762403371098244</v>
@@ -24048,7 +24048,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.492635373898986</v>
+        <v>1.532671492497483</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.485003343743873</v>
@@ -24137,7 +24137,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.509910831752789</v>
+        <v>1.553723698653435</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.438169614221932</v>
@@ -24226,7 +24226,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.494421510302162</v>
+        <v>1.540055701421592</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.648055932310514</v>
@@ -24315,7 +24315,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.522889314974737</v>
+        <v>1.569164379323939</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.738210966590719</v>
@@ -24404,7 +24404,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.524415745024613</v>
+        <v>1.570168983760136</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.564523014723375</v>
@@ -24493,7 +24493,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.524004257905481</v>
+        <v>1.564868469544358</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.714382525956332</v>
@@ -24582,7 +24582,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.497225220989159</v>
+        <v>1.539670696387357</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.650468616645745</v>
@@ -24671,7 +24671,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.493064694339308</v>
+        <v>1.532668790411979</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.587892657532874</v>
@@ -24760,7 +24760,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.493376050862242</v>
+        <v>1.533031962546002</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.69903673259688</v>
@@ -24849,7 +24849,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.452067312755418</v>
+        <v>1.483118372789107</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.487474057863995</v>
@@ -24938,7 +24938,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.422985540182717</v>
+        <v>1.452813187039322</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.435219988602908</v>
@@ -25027,7 +25027,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.464493247445453</v>
+        <v>1.48579146320386</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.670556953384144</v>
@@ -25116,7 +25116,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.457843489383487</v>
+        <v>1.484434742407565</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.420597138188803</v>
@@ -25205,7 +25205,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.44252450016965</v>
+        <v>1.461776756060543</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.527933280582653</v>
@@ -25294,7 +25294,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.418212029064997</v>
+        <v>1.441593319163992</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.5642131324146</v>
@@ -25383,7 +25383,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.425009187786663</v>
+        <v>1.450615218728819</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.522283764353721</v>
@@ -25472,7 +25472,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.425038037092658</v>
+        <v>1.450412653615422</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.502046634493563</v>
@@ -25561,7 +25561,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.412686355616932</v>
+        <v>1.437272440421672</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.291121493911813</v>
@@ -25650,7 +25650,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.368976593903491</v>
+        <v>1.393661307627754</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.241058773105912</v>
@@ -25739,7 +25739,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.358375291337771</v>
+        <v>1.382679927219647</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.298015317562286</v>
@@ -25828,7 +25828,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.336386660328335</v>
+        <v>1.357105316238644</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.174159467035087</v>
@@ -25917,7 +25917,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.332914901061473</v>
+        <v>1.354048480218594</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.316225599280707</v>
@@ -26006,7 +26006,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.318151551331463</v>
+        <v>1.337349209855917</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.284252880554158</v>
@@ -26095,7 +26095,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.296358619409379</v>
+        <v>1.313337599749492</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.195363799430773</v>
@@ -26184,7 +26184,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.297844683138058</v>
+        <v>1.31656438367256</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.247883890449735</v>
@@ -26273,7 +26273,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.302872184288134</v>
+        <v>1.320807457129879</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.23147747259776</v>
@@ -26362,7 +26362,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.299722954755156</v>
+        <v>1.319684553023231</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.078615453261596</v>
@@ -26451,7 +26451,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.309073474206</v>
+        <v>1.330752165303909</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.160445086109823</v>
@@ -26540,7 +26540,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.313373331659439</v>
+        <v>1.337364970430049</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.160323804524466</v>
@@ -26629,7 +26629,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.316056736561913</v>
+        <v>1.339762860485729</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.129174222601711</v>
@@ -26718,7 +26718,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.297274925926546</v>
+        <v>1.319112894819223</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.125780141446082</v>
@@ -26807,7 +26807,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.28486144489525</v>
+        <v>1.306942771481502</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.075846073603647</v>
@@ -26896,7 +26896,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.305549339966692</v>
+        <v>1.32535265848418</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.052008573824054</v>
@@ -26985,7 +26985,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.325577475579098</v>
+        <v>1.345433119166975</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.208792799709947</v>
@@ -27074,7 +27074,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.34950524659034</v>
+        <v>1.365654118334671</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.136580932016548</v>
@@ -27163,7 +27163,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.38157308488228</v>
+        <v>1.405750074644367</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.474325028999823</v>
@@ -27252,7 +27252,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.388406229884387</v>
+        <v>1.413985905077302</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.439655235476613</v>
@@ -27341,7 +27341,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.398749953026764</v>
+        <v>1.425151531698322</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.419919524779316</v>
@@ -27430,7 +27430,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.445752767113753</v>
+        <v>1.472856776802943</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.556239980193644</v>
